--- a/MetaData.xlsx
+++ b/MetaData.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kphud\Documents\Mammal_Stress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kphud\Documents\Mammal_Stress\Mammal_Stress_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC2EE9-62CA-48E6-B11A-7B17711DFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572934E-3953-4DEB-B661-2A96E194DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>Primate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Species</t>
   </si>
@@ -96,9 +105,6 @@
     <t>BasalFGC</t>
   </si>
   <si>
-    <t>ElevatedFGC</t>
-  </si>
-  <si>
     <t>BasalCortisol</t>
   </si>
   <si>
@@ -117,9 +123,6 @@
     <t>FecesMass</t>
   </si>
   <si>
-    <t>LifeStage</t>
-  </si>
-  <si>
     <t>MaxLifespan</t>
   </si>
   <si>
@@ -130,6 +133,84 @@
   </si>
   <si>
     <t>MSMR</t>
+  </si>
+  <si>
+    <t>Primate?</t>
+  </si>
+  <si>
+    <t>Body Mass (g)--from paper again</t>
+  </si>
+  <si>
+    <t>Old Column</t>
+  </si>
+  <si>
+    <t>New Column</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Adult Body Mass (g)--from AnAge</t>
+  </si>
+  <si>
+    <t>grams</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Body mass from original reference</t>
+  </si>
+  <si>
+    <t>Body mass from AnAge</t>
+  </si>
+  <si>
+    <t>nanograms/gram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total basal fecal glucocorticosoids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total elevated fecal glucocorticoids </t>
+  </si>
+  <si>
+    <t>ElevFGC</t>
+  </si>
+  <si>
+    <t>Method of induced stress</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Wet, Dry</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Degrees celsius</t>
+  </si>
+  <si>
+    <t>ml O2/hr</t>
+  </si>
+  <si>
+    <t>Resting metabolic rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-stress fecal cortisol levels </t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>juvenile, pre-adult, adult</t>
+  </si>
+  <si>
+    <t>Life stage at time of experiment</t>
   </si>
 </sst>
 </file>
@@ -165,8 +246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,190 +531,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>19</v>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E03EC8-FFEC-4EF4-B21B-628CDAEE1901}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>